--- a/biology/Zoologie/Buse_à_queue_rousse/Buse_à_queue_rousse.xlsx
+++ b/biology/Zoologie/Buse_à_queue_rousse/Buse_à_queue_rousse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buteo jamaicensis
 La Buse à queue rousse (Buteo jamaicensis) est une espèce d'oiseaux de proie, un rapace d'Amérique du Nord.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Identification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Buse à queue rousse adulte a la queue de couleur rousse (ce qui lui a donné son nom), terminée ou non par une barre noire. Elle a des ailes longues et larges. L'adulte a le dos et le haut des ailes brun foncé. Son plumage est variable, allant du brun roux clair au brun foncé. Les parties inférieures sont plus claires que les supérieures. Le bas de l'abdomen est plus pâle que le reste du corps, traversé par une bande foncée. La queue est uniformément rousse et large.
 Le bec est court et crochu, la cire est jaune, l'extrémité est noire. Les yeux sont brun foncé. Les pattes et les doigts sont jaunes.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Vocalisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Buse à queue rousse piaule ; son cri est une sorte de hennissement râpeux « keeeear ». Ce cri varie avec l'âge et le lieu. Il est souvent entendu quand il plane. Les jeunes émettent un doux et bas pépiement, devenant plus profond avec l'âge. Quand les parents quittent le nid, les jeunes émettent un vagissement perçant « Klee-uk » répété, pour quémander de la nourriture.
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Comportements</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La Buse à queue rousse chasse de plusieurs manières, et capture toute sorte de proies. Généralement, elle reste sur un pylône ou un perchoir haut, et fond sur sa proie dès qu'elle est repérée. Mais elle peut aussi chasser en volant, regardant au sol avec attention, grâce à sa vue perçante lui permettant de détecter le moindre mouvement à grande distance. Elle peut détecter une souris à 100 mètres de hauteur.
 Elle utilise ses puissantes serres comme une arme. Elle peut aussi voltiger sur place contre les vents, cherchant une proie au sol. La Buse à queue rousse est active pendant le jour. Les petites proies sont portées sur le perchoir pour y être dévorées, tandis que les plus grosses sont consommées au sol.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,14 +633,12 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La Buse à queue rousse vit dans les zones herbeuses, les marais buissonneux, mais aussi dans les déserts ou les forêts, depuis le niveau de la mer jusqu'à des altitudes variables, mais près d'un cours d'eau, d'un lac ou d'un champ.
 Elle n'hésite pas à même s'installer en ville (On la trouve même dans Manhattan, et dans Central Park)
-Répartition
-La Buse à queue rousse se reproduit depuis l'Alaska jusqu'au Labrador, et vers le sud, jusqu'au Mexique, Bahamas et Caraïbes, et Amérique centrale.
-Elle hiverne depuis le sud du Canada jusque vers le sud.
-Les oiseaux du nord migrent au sud en hiver, mais la plupart des autres oiseaux sont résidents à l'année.
 </t>
         </is>
       </c>
@@ -633,7 +649,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,12 +664,20 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vol</t>
+          <t>Habitat</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Buse à queue rousse a un vol agile et puissant, effectuant des vols acrobatiques pendant la parade nuptiale. C'est un rapace qui vole haut. Il plane sans effort avec les ailes tendues en un V peu profond. C'est un oiseau très actif en vol, battant beaucoup des ailes.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Buse à queue rousse se reproduit depuis l'Alaska jusqu'au Labrador, et vers le sud, jusqu'au Mexique, Bahamas et Caraïbes, et Amérique centrale.
+Elle hiverne depuis le sud du Canada jusque vers le sud.
+Les oiseaux du nord migrent au sud en hiver, mais la plupart des autres oiseaux sont résidents à l'année.
 </t>
         </is>
       </c>
@@ -664,7 +688,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,10 +703,45 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Vol</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Buse à queue rousse a un vol agile et puissant, effectuant des vols acrobatiques pendant la parade nuptiale. C'est un rapace qui vole haut. Il plane sans effort avec les ailes tendues en un V peu profond. C'est un oiseau très actif en vol, battant beaucoup des ailes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Buse_à_queue_rousse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buse_%C3%A0_queue_rousse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Nidification</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid de la Buse à queue rousse est un grand bol volumineux. Il est fait de brindilles, écorces, et feuilles, haut dans un arbre ou sur le bord d'une falaise. Il peut être réutilisé année après année. Le nid est construit par les deux adultes. Des matériaux frais, aiguilles de conifères et matériaux végétaux verts, sont déposés dans le nid tout au long de la période de reproduction, afin de le garder propre.
 La femelle dépose 1 à 5 œufs blancs ou blanc bleuté, variablement tachetés de brun clair. L'incubation dure environ 28 à 35 jours, assurée par les deux parents, davantage par la femelle qui est nourrie au nid par le mâle.
@@ -694,44 +753,13 @@
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Buse_%C3%A0_queue_rousse</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Régime alimentaire</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Buse à queue rousse se nourrit principalement de petits mammifères (souris, rats, écureuils, rats musqués, belettes), d'oiseaux (canards, pigeons, râles, tourterelles, pics, faisans, corneilles et rarement de la volaille), des reptiles et des amphibiens, des poissons et des invertébrés. La Buse ne boit que très peu d'eau, sauf quand la température dépasse 33°.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -746,12 +774,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Protection / Menaces</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Buse à queue rousse a peu de prédateurs, tels que le grand-duc d'Amérique et les corvidés, les renards roux et les ratons laveurs, qui dévorent poussins et œufs. Elle est menacée par les tirs, les collisions diverses, la perte de l'habitat et les dérangements humains sur les sites de reproduction. L'empoisonnement par le plomb tue aussi beaucoup d'oiseaux chaque année.
+          <t>Régime alimentaire</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Buse à queue rousse se nourrit principalement de petits mammifères (souris, rats, écureuils, rats musqués, belettes), d'oiseaux (canards, pigeons, râles, tourterelles, pics, faisans, corneilles et rarement de la volaille), des reptiles et des amphibiens, des poissons et des invertébrés. La Buse ne boit que très peu d'eau, sauf quand la température dépasse 33°.
 </t>
         </is>
       </c>
@@ -762,7 +792,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -777,12 +807,14 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Utilisations par l'homme</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Buse à queue rousse est un oiseau utilisé en fauconnerie en Amérique comme en Europe. Bien plus puissante que la Buse variable européenne, elle est utilisée pour la chasse au vol. Principalement utilisée pour capturer des proies comme des lapins ou des lièvres, elle est aussi capable de s'attaquer à des oiseaux.
+          <t>Protection / Menaces</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Buse à queue rousse a peu de prédateurs, tels que le grand-duc d'Amérique et les corvidés, les renards roux et les ratons laveurs, qui dévorent poussins et œufs. Elle est menacée par les tirs, les collisions diverses, la perte de l'habitat et les dérangements humains sur les sites de reproduction. L'empoisonnement par le plomb tue aussi beaucoup d'oiseaux chaque année.
 </t>
         </is>
       </c>
@@ -793,7 +825,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Buse_%C3%A0_queue_rousse</t>
+          <t>Buse_à_queue_rousse</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -808,10 +840,45 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>Utilisations par l'homme</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Buse à queue rousse est un oiseau utilisé en fauconnerie en Amérique comme en Europe. Bien plus puissante que la Buse variable européenne, elle est utilisée pour la chasse au vol. Principalement utilisée pour capturer des proies comme des lapins ou des lièvres, elle est aussi capable de s'attaquer à des oiseaux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Buse_à_queue_rousse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Buse_%C3%A0_queue_rousse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des 15 sous-espèces suivantes :
 Buteo jamaicensis alascensis Grinnell 1909 ;
